--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1703521.69828772</v>
+        <v>1807701.332738791</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283172</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.71145624902321</v>
+        <v>287.7971664995879</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.07876395770505</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>20.2244582154854</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>52.98455791795061</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -950,16 +952,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>299.5215209693911</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>88.32978976418777</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>16.07276553345865</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292587</v>
+        <v>33.2155532415946</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>220.1612211844861</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>150.414712867501</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>235.2774152190096</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695499</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560707</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.8176890312854</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
         <v>225.7478006422472</v>
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462238</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856535</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000848</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695499</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.8176890312854</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
         <v>225.7478006422472</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>72.80978492055419</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>87.2147151485303</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>150.6726801246967</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2843,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>42.5313457611408</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>70.81964134445506</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="C34" t="n">
-        <v>59.96838802184633</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>113.6427030833208</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>94.64226186542921</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>185.4048731212365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>75.92936329650546</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758761</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1278.358723975039</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.358723975039</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>481.584566587187</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>2635.871647259407</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>2635.871647259407</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>628.5134590629166</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845646</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X4" t="n">
-        <v>1383.192889845646</v>
+        <v>1030.954503036686</v>
       </c>
       <c r="Y4" t="n">
-        <v>1162.400310702116</v>
+        <v>810.1619238931563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
         <v>1590.416669135309</v>
@@ -4565,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2706.790414642315</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2354.0217593722</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>1980.556001111121</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y5" t="n">
-        <v>1590.416669135309</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.5602567208166</v>
+        <v>567.2993462682277</v>
       </c>
       <c r="C7" t="n">
-        <v>302.6240737929097</v>
+        <v>398.3631633403209</v>
       </c>
       <c r="D7" t="n">
-        <v>302.6240737929097</v>
+        <v>398.3631633403209</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>250.4500697579277</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>250.4500697579277</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>82.7472331326467</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>82.7472331326467</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X7" t="n">
-        <v>874.0013006945865</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="Y7" t="n">
-        <v>653.2087215510563</v>
+        <v>748.9478110984675</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>926.121535257193</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>515.1356304675855</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927146</v>
+        <v>100.063180312582</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>100.063180312582</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2786.952333616968</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2434.183678346854</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>478.9911633238872</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1493.844153271331</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672848</v>
+        <v>1204.741286396975</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672848</v>
+        <v>950.0567981910876</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.124251906171</v>
+        <v>660.639628154127</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.134701008154</v>
+        <v>660.639628154127</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>660.639628154127</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
         <v>1577.52840832642</v>
@@ -5173,61 +5175,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
         <v>2273.199413378161</v>
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797224</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192775</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111744</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075861</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332395</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014789</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.89852635595</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068025</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694723</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852272</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398612</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492596</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474802</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466591</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123021</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852906</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591826</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300131</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568981</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.480995402806</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797224</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797224</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797224</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191939</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349543</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951533</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951533</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190822</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685891</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5388,7 +5390,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
         <v>1781.463605996603</v>
@@ -5397,7 +5399,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
         <v>1111.614450297915</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356196</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232839</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408908</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429804</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578604</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797224</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782965</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038357</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797767</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853367</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580267</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580267</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580267</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819082</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111549</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075658</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332374</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014768</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355929</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068004</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5582,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756273</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468489</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962609</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589163</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143771</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685891</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685891</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.500769464734</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368272</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244914</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038353</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797763</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235171</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235171</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579369</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373482</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336521</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438504</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949738</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2985.713220456422</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>2816.777037528515</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661313</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
         <v>2728.681365661313</v>
@@ -5935,25 +5937,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5984,22 +5986,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6011,25 +6013,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300426</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300426</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>3838.083511855033</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O24" t="n">
-        <v>4389.993242094321</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6175,22 +6177,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,10 +6317,10 @@
         <v>738.7889117913853</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445482</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851708</v>
+        <v>1028.49032036275</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572639</v>
+        <v>859.5541374348429</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>709.4374980225072</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>561.524404440114</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>414.6344569422037</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>247.4383576570836</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782999</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038386</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853365</v>
@@ -6643,28 +6645,28 @@
         <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832667</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832667</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855608</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199806</v>
+        <v>1975.033022579367</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993919</v>
+        <v>1720.34853437348</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956958</v>
+        <v>1430.931364336519</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058941</v>
+        <v>1430.931364336519</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154105</v>
+        <v>1210.138785192989</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926977</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>4435.461999481584</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2939.372134388645</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C34" t="n">
-        <v>2878.798005073648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661313</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459586</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180517</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>189.4149073564862</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7129,16 +7131,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761984</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7257,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1688.385853854707</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,52 +7399,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429802</v>
@@ -7561,10 +7563,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7591,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7655,43 +7657,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7731,19 +7733,19 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>45.37941682720927</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992872</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>16.31315520054552</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101214</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891593</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>73.62417772601498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856535</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101214</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272882</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.40075786968205</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>135.8503182118943</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>106.0841272570716</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>69.4750715017688</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>63.36835372228703</v>
       </c>
       <c r="C34" t="n">
-        <v>107.2784330767815</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.97276993489153</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>70.88187642683964</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>40.30478226780068</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>103.9026168854318</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878661.5860369786</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878661.5860369785</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583915</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907551</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907544</v>
       </c>
       <c r="J2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907545</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>3.998865167886834e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.28963602883353e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815702</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="C4" t="n">
         <v>90964.01098815711</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815701</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26445,7 +26447,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26479,10 +26481,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239075</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-973439.5026187518</v>
+        <v>-973439.5026187516</v>
       </c>
       <c r="C6" t="n">
-        <v>355305.2431088416</v>
+        <v>355305.243108841</v>
       </c>
       <c r="D6" t="n">
-        <v>355305.2431088407</v>
+        <v>355305.2431088412</v>
       </c>
       <c r="E6" t="n">
-        <v>106511.986942686</v>
+        <v>106511.9869426857</v>
       </c>
       <c r="F6" t="n">
-        <v>431924.4487500378</v>
+        <v>431924.448750041</v>
       </c>
       <c r="G6" t="n">
-        <v>431924.4487500422</v>
+        <v>431924.4487500409</v>
       </c>
       <c r="H6" t="n">
-        <v>431924.4487500436</v>
+        <v>431924.4487500409</v>
       </c>
       <c r="I6" t="n">
+        <v>431924.4487500413</v>
+      </c>
+      <c r="J6" t="n">
+        <v>214393.2463527637</v>
+      </c>
+      <c r="K6" t="n">
         <v>431924.4487500414</v>
       </c>
-      <c r="J6" t="n">
-        <v>214393.2463527633</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>431924.4487500407</v>
+      </c>
+      <c r="M6" t="n">
+        <v>346869.420814529</v>
+      </c>
+      <c r="N6" t="n">
+        <v>431924.4487500411</v>
+      </c>
+      <c r="O6" t="n">
         <v>431924.4487500413</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>431924.448750041</v>
-      </c>
-      <c r="M6" t="n">
-        <v>346869.4208145298</v>
-      </c>
-      <c r="N6" t="n">
-        <v>431924.4487500412</v>
-      </c>
-      <c r="O6" t="n">
-        <v>431924.448750042</v>
-      </c>
-      <c r="P6" t="n">
-        <v>431924.4487500414</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341677</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341677</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099653</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26810,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-12</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>353.0223854144573</v>
+        <v>94.93667516389269</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.7532162242322</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>147.0223628831424</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>329.74928374553</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>28.23073750074377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>58.10417288238141</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>80.27965487637944</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8.361376531331352</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>107.5910372856488</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>69.13423640866822</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>51.24558311758136</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29512,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.501964040707998e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29563,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29691,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29703,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987471</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348447</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135355</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663294</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817592</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162582</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175698</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.271511415945</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460051</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236526</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669238</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043735</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292904</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651534</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078757</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659457</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521107</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422597</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473088</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286636</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O15" t="n">
-        <v>700.080820443726</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214711</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485299</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742452</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937737</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275959</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189909</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121576</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869294</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796266</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355185</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588162</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392055</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106798</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920066</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417322</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515932</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670481</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532777</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099325</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467225</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348447</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135355</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067052</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663294</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817592</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162582</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175698</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.271511415945</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460051</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236526</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669238</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043735</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292904</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651534</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078757</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659457</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521107</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420762</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422597</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473088</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.546647686214</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071803</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940604</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485299</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742452</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937737</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275959</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189909</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121576</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869294</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796266</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355185</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588162</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392055</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106798</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920066</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417322</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515932</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670481</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532777</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099325</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467225</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8531046913745</v>
+        <v>165.2255134509763</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33035,13 +33037,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>539.5330155967679</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
@@ -33269,13 +33271,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868565</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>537.6437863443696</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33512,16 +33514,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>360.9226811202607</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,7 +33742,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33977,7 +33979,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33986,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -33995,7 +33997,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34211,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>246.9596973201444</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34375,7 +34377,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
@@ -34451,22 +34453,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127256</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317796</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396431</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367787</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146271</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902971</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193541</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243183</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683831</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924742</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902413</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496679007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674346</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>425.4542490066452</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992816</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071409</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625084</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295381</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096356</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191323</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010461</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899083</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060463</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066257</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998989</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236299335</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396431</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367787</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146271</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902971</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193541</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243183</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683831</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924742</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902413</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754095</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496679007</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674346</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641956</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238471</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074961598</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295381</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096356</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191323</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010461</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899083</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060463</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066257</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998989</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36452,13 +36454,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770443</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>405.5586081824376</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648383</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>395.0475418999251</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295757</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899111</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,16 +37162,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>220.9409070342392</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>103.6778299969394</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37859,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>108.4053175402702</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,13 +37876,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193518</v>
@@ -38099,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789214</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1807701.332738791</v>
+        <v>1803688.722724798</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.7971664995879</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>163.0178325771111</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>42.86209348694737</v>
       </c>
       <c r="C4" t="n">
-        <v>20.2244582154854</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.98455791795061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>283.6826708844488</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>16.07276553345865</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>218.1043346164863</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>33.2155532415946</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>83.41943806107159</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>138.5234422138599</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1341,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>150.414712867501</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>54.32649042089665</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>172.026033500079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H16" t="n">
-        <v>123.9815576456783</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>218.6444667192159</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>150.6726801246967</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.52079624060465</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>206.7582264966179</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>121.0116223990573</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>70.81964134445506</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>116.4636264596503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>94.64226186542921</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.92936329650546</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1853.982617026599</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1485.020100086187</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
@@ -4336,46 +4336,46 @@
         <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520487</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259407</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y2" t="n">
-        <v>2635.871647259407</v>
+        <v>2240.582457090721</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>628.5134590629166</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W4" t="n">
-        <v>1258.944053934704</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="X4" t="n">
-        <v>1030.954503036686</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="Y4" t="n">
-        <v>810.1619238931563</v>
+        <v>1134.908724368017</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.03827352421</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548398</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>567.2993462682277</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C7" t="n">
-        <v>398.3631633403209</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>398.3631633403209</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>250.4500697579277</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>250.4500697579277</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>82.7472331326467</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>82.7472331326467</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W7" t="n">
-        <v>969.7403902419976</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X7" t="n">
-        <v>969.7403902419976</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y7" t="n">
-        <v>748.9478110984675</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855437</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.909787855437</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1311.909787855437</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>926.121535257193</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>515.1356304675855</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>100.063180312582</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>100.063180312582</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4846,10 +4846,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.9911633238872</v>
+        <v>917.616325937273</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>748.6801430093661</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>450.6504100146373</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>303.7604625167269</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>303.7604625167269</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1493.844153271331</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1204.741286396975</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>950.0567981910876</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>660.639628154127</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X10" t="n">
-        <v>660.639628154127</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y10" t="n">
-        <v>660.639628154127</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5126,19 +5126,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>148.6919058973624</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576786</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>219.0505596597682</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>219.0505596597682</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,13 +5527,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,16 +5591,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5743,34 +5743,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990607</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="23">
@@ -5983,22 +5983,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6007,10 +6007,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,16 +6481,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913447</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913447</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1028.49032036275</v>
+        <v>1051.964939354869</v>
       </c>
       <c r="C31" t="n">
-        <v>859.5541374348429</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>709.4374980225072</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>561.524404440114</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>414.6344569422037</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>247.4383576570836</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782999</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038386</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235169</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235169</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579367</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.34853437348</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336519</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X31" t="n">
-        <v>1430.931364336519</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y31" t="n">
-        <v>1210.138785192989</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="32">
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577.8620388433919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770323</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>634.3345878491255</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.2179484367897</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>336.3048548543966</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>189.4149073564862</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7183,7 +7183,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7499,19 +7499,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
         <v>484.8112968429802</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7657,7 +7657,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355936</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>45.37941682720927</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H16" t="n">
-        <v>16.31315520054552</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>7.065188669821225</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>135.8503182118943</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610399</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>79.42624789262624</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.23519869957052</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>69.4750715017688</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>63.36835372228703</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>70.88187642683964</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.9026168854318</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583916</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583916</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583914</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583916</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.954790754</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815705</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
@@ -26447,7 +26447,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-973439.5026187516</v>
+        <v>-973439.5026187515</v>
       </c>
       <c r="C6" t="n">
+        <v>355305.2431088415</v>
+      </c>
+      <c r="D6" t="n">
         <v>355305.243108841</v>
       </c>
-      <c r="D6" t="n">
-        <v>355305.2431088412</v>
-      </c>
       <c r="E6" t="n">
-        <v>106511.9869426857</v>
+        <v>106164.6076883289</v>
       </c>
       <c r="F6" t="n">
-        <v>431924.448750041</v>
+        <v>431577.0694956838</v>
       </c>
       <c r="G6" t="n">
-        <v>431924.4487500409</v>
+        <v>431577.0694956839</v>
       </c>
       <c r="H6" t="n">
-        <v>431924.4487500409</v>
+        <v>431577.0694956843</v>
       </c>
       <c r="I6" t="n">
-        <v>431924.4487500413</v>
+        <v>431577.0694956839</v>
       </c>
       <c r="J6" t="n">
-        <v>214393.2463527637</v>
+        <v>214045.8670984067</v>
       </c>
       <c r="K6" t="n">
-        <v>431924.4487500414</v>
+        <v>431577.0694956839</v>
       </c>
       <c r="L6" t="n">
-        <v>431924.4487500407</v>
+        <v>431577.0694956842</v>
       </c>
       <c r="M6" t="n">
-        <v>346869.420814529</v>
+        <v>346522.0415601723</v>
       </c>
       <c r="N6" t="n">
-        <v>431924.4487500411</v>
+        <v>431577.0694956839</v>
       </c>
       <c r="O6" t="n">
-        <v>431924.4487500413</v>
+        <v>431577.0694956839</v>
       </c>
       <c r="P6" t="n">
-        <v>431924.448750041</v>
+        <v>431577.0694956838</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26798,10 +26798,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,25 +26980,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.93667516389269</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>191.6652090435718</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>136.9698866949899</v>
       </c>
       <c r="C4" t="n">
-        <v>147.0223628831424</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329.74928374553</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>71.00037073623412</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>80.27965487637944</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>68.10750358912654</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8.361376531331352</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>286.3116626173975</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6.231572700460873</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>69.13423640866822</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209194</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>165.2255134509763</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868565</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>340.4395077511227</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>171.5999003578894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34377,10 +34377,10 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410452</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>31.25110603664601</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648383</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295757</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>197.8432633066783</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37867,22 +37867,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>29.46586643587111</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,10 +38025,10 @@
         <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1803688.722724798</v>
+        <v>1805449.253027583</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>163.0178325771111</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>280.7860060578952</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.86209348694737</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>109.1425972588402</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>282.6988068886394</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>283.6826708844488</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>218.1043346164863</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>210.6180377869396</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506832</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>83.41943806107159</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5234422138599</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1341,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2419515106227</v>
       </c>
     </row>
     <row r="11">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>54.32649042089665</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>218.6444667192159</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>206.7582264966179</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>121.0116223990573</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>97.54185816719604</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1853.982617026599</v>
+        <v>2217.803762225666</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.020100086187</v>
+        <v>1848.841245285254</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1490.575546678504</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1104.787294080259</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="Y2" t="n">
-        <v>2240.582457090721</v>
+        <v>2604.403602289788</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4479,28 +4479,28 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368017</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368017</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X4" t="n">
-        <v>1134.908724368017</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="Y4" t="n">
-        <v>1134.908724368017</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535337</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1904.487375535337</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>2630.72178906653</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.4548862703364</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U7" t="n">
-        <v>1706.987139384971</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V7" t="n">
-        <v>1452.302651179084</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W7" t="n">
-        <v>1162.885481142124</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>934.8959302441062</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>714.1033511005761</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>1987.713327533092</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.616325937273</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>748.6801430093661</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>598.5635035970304</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>450.6504100146373</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>303.7604625167269</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>303.7604625167269</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.04692080906</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.057369911043</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.264790767513</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4949469776659</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>295.5818533952728</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>148.6919058973624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>148.6919058973624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,13 +5287,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1212.506425581584</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>991.7138464380538</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
         <v>402.7245934908939</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1051.964939354869</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2098.535416025753</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.757518498399</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.964939354869</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="32">
@@ -6694,10 +6694,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,28 +7171,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>85.96822242532724</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.8157004124962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>7.065188669821225</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>79.42624789262624</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.23519869957052</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369784</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815705</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
@@ -26447,7 +26447,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-973439.5026187515</v>
+        <v>-973439.5026187514</v>
       </c>
       <c r="C6" t="n">
-        <v>355305.2431088415</v>
+        <v>355305.2431088412</v>
       </c>
       <c r="D6" t="n">
         <v>355305.243108841</v>
       </c>
       <c r="E6" t="n">
-        <v>106164.6076883289</v>
+        <v>106477.2490172499</v>
       </c>
       <c r="F6" t="n">
-        <v>431577.0694956838</v>
+        <v>431889.7108246055</v>
       </c>
       <c r="G6" t="n">
-        <v>431577.0694956839</v>
+        <v>431889.7108246055</v>
       </c>
       <c r="H6" t="n">
-        <v>431577.0694956843</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="I6" t="n">
-        <v>431577.0694956839</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="J6" t="n">
-        <v>214045.8670984067</v>
+        <v>214358.5084273276</v>
       </c>
       <c r="K6" t="n">
-        <v>431577.0694956839</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="L6" t="n">
-        <v>431577.0694956842</v>
+        <v>431889.7108246054</v>
       </c>
       <c r="M6" t="n">
-        <v>346522.0415601723</v>
+        <v>346834.6828890931</v>
       </c>
       <c r="N6" t="n">
-        <v>431577.0694956839</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="O6" t="n">
-        <v>431577.0694956839</v>
+        <v>431889.7108246053</v>
       </c>
       <c r="P6" t="n">
-        <v>431577.0694956838</v>
+        <v>431889.7108246055</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>191.6652090435718</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>126.0900396838163</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.9698866949899</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>109.4420560932546</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>100.0350347748412</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>71.00037073623412</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>68.10750358912654</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>75.90496054965138</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194517</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>286.3116626173975</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>6.231572700460873</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>69.34270184147212</v>
       </c>
     </row>
     <row r="11">
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32484,7 +32484,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32715,7 +32715,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
         <v>965.6463440175675</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
